--- a/src/test/java/day09_excel_screenshot_jsExecutor/ulkeler.xlsx
+++ b/src/test/java/day09_excel_screenshot_jsExecutor/ulkeler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="575">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1742,13 +1742,17 @@
     <t>Zimbabve</t>
   </si>
   <si>
-    <t>Nufus</t>
+    <t>Nüfus</t>
+  </si>
+  <si>
+    <t>1500000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2161,7 +2165,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2172,15 +2176,15 @@
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2193,11 +2197,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2210,11 +2214,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" t="s" s="0">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2298,7 +2302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2325,11 +2329,8 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2398,11 +2399,8 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
